--- a/2020/Directivos-colegio/Coordinacion/listados/20200701 Listado de medios de comunicacion con estudiantes.xlsx
+++ b/2020/Directivos-colegio/Coordinacion/listados/20200701 Listado de medios de comunicacion con estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\Directivos-colegio\Coordinacion\listados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49844AB4-8F95-4CF5-BDC6-B29F8C635637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD99958F-2468-463D-BD10-9CDCD2943A02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="710" firstSheet="4" activeTab="4" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="710" activeTab="13" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="15" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="531">
   <si>
     <t>Codigo</t>
   </si>
@@ -2954,7 +2954,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>33</c:v>
@@ -2963,16 +2963,16 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>30</c:v>
@@ -2984,7 +2984,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>32</c:v>
@@ -3146,7 +3146,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3155,16 +3155,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
@@ -3176,7 +3176,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -3621,7 +3621,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94444444444444442</c:v>
+                  <c:v>0.97222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -3630,16 +3630,16 @@
                   <c:v>0.94117647058823528</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91176470588235292</c:v>
+                  <c:v>0.94117647058823528</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0.91176470588235292</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.93939393939393945</c:v>
+                  <c:v>0.96969696969696972</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.9375</c:v>
@@ -3651,7 +3651,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.96969696969696972</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.96969696969696972</c:v>
@@ -3810,7 +3810,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3819,16 +3819,16 @@
                   <c:v>5.8823529411764705E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8235294117647065E-2</c:v>
+                  <c:v>5.8823529411764705E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11764705882352941</c:v>
+                  <c:v>8.8235294117647065E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0606060606060608E-2</c:v>
+                  <c:v>3.0303030303030304E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6.25E-2</c:v>
@@ -3840,7 +3840,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0303030303030304E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3.0303030303030304E-2</c:v>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="D5" s="10">
         <f>'08-2'!D46</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="10">
         <f>'08-3'!D44</f>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="G5" s="10">
         <f>'09-1'!D44</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="10">
         <f>'09-2'!D44</f>
@@ -5697,11 +5697,11 @@
       </c>
       <c r="I5" s="10">
         <f>'09-3'!D44</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5" s="10">
         <f>'10-1'!D43</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5" s="10">
         <f>'10-2'!D42</f>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="N5" s="10">
         <f>'11-2'!D43</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O5" s="10">
         <f>'11-3'!D43</f>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="P5" s="33">
         <f t="shared" ref="P5:P8" si="0">AVERAGE(B5:O5)</f>
-        <v>32.857142857142854</v>
+        <v>33.214285714285715</v>
       </c>
       <c r="Q5" s="33">
         <f t="shared" ref="Q5:Q8" si="1">MAX(B5:O5)</f>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="D6" s="10">
         <f>'08-2'!D47</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="10">
         <f>'08-3'!D45</f>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="G6" s="10">
         <f>'09-1'!D45</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="10">
         <f>'09-2'!D45</f>
@@ -5770,11 +5770,11 @@
       </c>
       <c r="I6" s="10">
         <f>'09-3'!D45</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="10">
         <f>'10-1'!D44</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="10">
         <f>'10-2'!D43</f>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="N6" s="10">
         <f>'11-2'!D44</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="10">
         <f>'11-3'!D44</f>
@@ -5798,11 +5798,11 @@
       </c>
       <c r="P6" s="33">
         <f t="shared" si="0"/>
-        <v>1.2142857142857142</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Q6" s="33">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R6" s="33">
         <f t="shared" si="2"/>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="D7" s="32">
         <f t="shared" si="3"/>
-        <v>0.94444444444444442</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="E7" s="32">
         <f t="shared" si="3"/>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="G7" s="32">
         <f t="shared" si="3"/>
-        <v>0.91176470588235292</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="H7" s="32">
         <f t="shared" si="3"/>
@@ -5843,11 +5843,11 @@
       </c>
       <c r="I7" s="32">
         <f t="shared" si="3"/>
-        <v>0.88235294117647056</v>
+        <v>0.91176470588235292</v>
       </c>
       <c r="J7" s="32">
         <f t="shared" si="3"/>
-        <v>0.93939393939393945</v>
+        <v>0.96969696969696972</v>
       </c>
       <c r="K7" s="32">
         <f t="shared" si="3"/>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="N7" s="32">
         <f t="shared" si="3"/>
-        <v>0.96969696969696972</v>
+        <v>1</v>
       </c>
       <c r="O7" s="32">
         <f t="shared" si="3"/>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="P7" s="34">
         <f t="shared" si="0"/>
-        <v>0.96400188863424163</v>
+        <v>0.9745167006196418</v>
       </c>
       <c r="Q7" s="34">
         <f t="shared" si="1"/>
@@ -5879,7 +5879,7 @@
       </c>
       <c r="R7" s="34">
         <f t="shared" si="2"/>
-        <v>0.88235294117647056</v>
+        <v>0.91176470588235292</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="D8" s="36">
         <f t="shared" si="4"/>
-        <v>5.5555555555555552E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="E8" s="36">
         <f t="shared" si="4"/>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="G8" s="36">
         <f t="shared" si="4"/>
-        <v>8.8235294117647065E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="H8" s="36">
         <f t="shared" si="4"/>
@@ -5916,11 +5916,11 @@
       </c>
       <c r="I8" s="36">
         <f t="shared" si="4"/>
-        <v>0.11764705882352941</v>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="J8" s="36">
         <f t="shared" si="4"/>
-        <v>6.0606060606060608E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="K8" s="36">
         <f t="shared" si="4"/>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="N8" s="36">
         <f t="shared" si="4"/>
-        <v>3.0303030303030304E-2</v>
+        <v>0</v>
       </c>
       <c r="O8" s="36">
         <f t="shared" si="4"/>
@@ -5944,11 +5944,11 @@
       </c>
       <c r="P8" s="37">
         <f t="shared" si="0"/>
-        <v>3.5998111365758423E-2</v>
+        <v>2.5483299380358204E-2</v>
       </c>
       <c r="Q8" s="37">
         <f t="shared" si="1"/>
-        <v>0.11764705882352941</v>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="R8" s="37">
         <f t="shared" si="2"/>
@@ -6301,8 +6301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE5E425-7606-4CA0-91F7-19ECFA2BFA71}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6805,9 +6805,12 @@
       <c r="C29" s="9" t="s">
         <v>346</v>
       </c>
+      <c r="D29" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -6962,7 +6965,7 @@
       <c r="C38" s="68"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E38" s="22">
         <f t="shared" ref="E38:G38" si="1">COUNTA(E5:E37)</f>
@@ -6978,7 +6981,7 @@
       </c>
       <c r="H38" s="23">
         <f>COUNTIF($H$5:$H$37,"X")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -7012,11 +7015,11 @@
       </c>
       <c r="D43" s="10">
         <f>D42-D44</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E43" s="12">
         <f>D43/D42</f>
-        <v>0.93939393939393945</v>
+        <v>0.96969696969696972</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -7025,11 +7028,11 @@
       </c>
       <c r="D44" s="10">
         <f>H38</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D42</f>
-        <v>6.0606060606060608E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9313,8 +9316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A71EA1-F646-4F3E-830E-E1FBC54465F3}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9792,10 +9795,12 @@
       <c r="C27" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -9990,7 +9995,7 @@
       <c r="C38" s="68"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E38" s="22">
         <f t="shared" ref="E38:G38" si="1">COUNTA(E5:E37)</f>
@@ -10006,7 +10011,7 @@
       </c>
       <c r="H38" s="23">
         <f>COUNTIF(H5:H37,"X")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -10040,11 +10045,11 @@
       </c>
       <c r="D43" s="10">
         <f>D42-D44</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E43" s="12">
         <f>D43/D42</f>
-        <v>0.96969696969696972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -10053,11 +10058,11 @@
       </c>
       <c r="D44" s="10">
         <f>H38</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D42</f>
-        <v>3.0303030303030304E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12720,7 +12725,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12871,6 +12876,9 @@
       <c r="C8" s="9" t="s">
         <v>118</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="3" t="s">
         <v>43</v>
       </c>
@@ -13138,9 +13146,12 @@
       <c r="C21" s="9" t="s">
         <v>131</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="3" t="s">
@@ -13569,7 +13580,7 @@
       <c r="C41" s="68"/>
       <c r="D41" s="22">
         <f>COUNTA(D5:D40)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E41" s="22">
         <f t="shared" ref="E41:G41" si="1">COUNTA(E5:E40)</f>
@@ -13585,7 +13596,7 @@
       </c>
       <c r="H41" s="23">
         <f>COUNTIF(H5:H40,"X")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" s="42"/>
       <c r="J41" s="3">
@@ -13624,11 +13635,11 @@
       </c>
       <c r="D46" s="10">
         <f>D45-D47</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E46" s="12">
         <f>D46/D45</f>
-        <v>0.94444444444444442</v>
+        <v>0.97222222222222221</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -13637,11 +13648,11 @@
       </c>
       <c r="D47" s="10">
         <f>H41</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="12">
         <f>D47/D45</f>
-        <v>5.5555555555555552E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
   </sheetData>
@@ -13662,8 +13673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67FE634-56F6-4127-84CF-6C812025014A}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="E5" sqref="E5:E37"/>
     </sheetView>
@@ -14440,10 +14451,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581CE2C6-5A3B-4910-989B-A6ED716B8D89}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
+    <sheetView topLeftCell="B19" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B5" sqref="B5"/>
-      <selection pane="topRight" activeCell="C33" sqref="C33"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14626,8 +14637,10 @@
       <c r="C10" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="53"/>
       <c r="F10" s="57" t="s">
         <v>43</v>
       </c>
@@ -14758,7 +14771,6 @@
       <c r="D16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="53"/>
       <c r="H16" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -14778,7 +14790,6 @@
       <c r="C17" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E17"/>
       <c r="F17" s="3" t="s">
         <v>43</v>
       </c>
@@ -14946,7 +14957,6 @@
       <c r="D25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="53"/>
       <c r="H25" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15237,7 +15247,7 @@
       <c r="C39" s="68"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
@@ -15330,8 +15340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EE12D0-9DBC-4060-A74D-7E7E6A600169}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15503,6 +15513,7 @@
       <c r="D10" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E10" s="53"/>
       <c r="G10" s="53"/>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15606,6 +15617,7 @@
       <c r="C16" s="61" t="s">
         <v>230</v>
       </c>
+      <c r="E16" s="3"/>
       <c r="H16" s="63" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
@@ -15642,9 +15654,12 @@
       <c r="C18" s="9" t="s">
         <v>232</v>
       </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -15676,9 +15691,6 @@
         <v>234</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H20" s="4" t="str">
@@ -16021,11 +16033,11 @@
       <c r="C39" s="68"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="22">
         <f t="shared" si="1"/>
@@ -16037,7 +16049,7 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF($H$5:$H$38,"X")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -16071,11 +16083,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.91176470588235292</v>
+        <v>0.94117647058823528</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -16084,11 +16096,11 @@
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>8.8235294117647065E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
   </sheetData>
@@ -17009,7 +17021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26084B0-3C12-462B-B273-6776CCBE4AD2}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -17261,9 +17273,12 @@
       <c r="C15" s="9" t="s">
         <v>297</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -17682,7 +17697,7 @@
       <c r="C39" s="68"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
@@ -17698,7 +17713,7 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF($H$5:$H$38,"X")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -17732,11 +17747,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.88235294117647056</v>
+        <v>0.91176470588235292</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -17745,11 +17760,11 @@
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>0.11764705882352941</v>
+        <v>8.8235294117647065E-2</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">

--- a/2020/Directivos-colegio/Coordinacion/listados/20200701 Listado de medios de comunicacion con estudiantes.xlsx
+++ b/2020/Directivos-colegio/Coordinacion/listados/20200701 Listado de medios de comunicacion con estudiantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\Directivos-colegio\Coordinacion\listados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD99958F-2468-463D-BD10-9CDCD2943A02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555EB9F0-9433-4FC2-83BE-572BCBA22DFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="710" activeTab="13" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="710" activeTab="6" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="15" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="533">
   <si>
     <t>Codigo</t>
   </si>
@@ -1636,6 +1636,12 @@
   </si>
   <si>
     <t>Dificultad en conectarse. Solo Datos. Le dí mi Whatsapp</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>CEL</t>
   </si>
 </sst>
 </file>
@@ -2963,13 +2969,13 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>32</c:v>
@@ -3155,13 +3161,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -3630,13 +3636,13 @@
                   <c:v>0.94117647058823528</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0.97058823529411764</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91176470588235292</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.96969696969696972</c:v>
@@ -3819,13 +3825,13 @@
                   <c:v>5.8823529411764705E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8823529411764705E-2</c:v>
+                  <c:v>2.9411764705882353E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8235294117647065E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3.0303030303030304E-2</c:v>
@@ -5689,7 +5695,7 @@
       </c>
       <c r="G5" s="10">
         <f>'09-1'!D44</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="10">
         <f>'09-2'!D44</f>
@@ -5697,7 +5703,7 @@
       </c>
       <c r="I5" s="10">
         <f>'09-3'!D44</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J5" s="10">
         <f>'10-1'!D43</f>
@@ -5725,7 +5731,7 @@
       </c>
       <c r="P5" s="33">
         <f t="shared" ref="P5:P8" si="0">AVERAGE(B5:O5)</f>
-        <v>33.214285714285715</v>
+        <v>33.5</v>
       </c>
       <c r="Q5" s="33">
         <f t="shared" ref="Q5:Q8" si="1">MAX(B5:O5)</f>
@@ -5762,7 +5768,7 @@
       </c>
       <c r="G6" s="10">
         <f>'09-1'!D45</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="10">
         <f>'09-2'!D45</f>
@@ -5770,7 +5776,7 @@
       </c>
       <c r="I6" s="10">
         <f>'09-3'!D45</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="10">
         <f>'10-1'!D44</f>
@@ -5798,11 +5804,11 @@
       </c>
       <c r="P6" s="33">
         <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Q6" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R6" s="33">
         <f t="shared" si="2"/>
@@ -5835,7 +5841,7 @@
       </c>
       <c r="G7" s="32">
         <f t="shared" si="3"/>
-        <v>0.94117647058823528</v>
+        <v>0.97058823529411764</v>
       </c>
       <c r="H7" s="32">
         <f t="shared" si="3"/>
@@ -5843,7 +5849,7 @@
       </c>
       <c r="I7" s="32">
         <f t="shared" si="3"/>
-        <v>0.91176470588235292</v>
+        <v>1</v>
       </c>
       <c r="J7" s="32">
         <f t="shared" si="3"/>
@@ -5871,7 +5877,7 @@
       </c>
       <c r="P7" s="34">
         <f t="shared" si="0"/>
-        <v>0.9745167006196418</v>
+        <v>0.98292006196417958</v>
       </c>
       <c r="Q7" s="34">
         <f t="shared" si="1"/>
@@ -5879,7 +5885,7 @@
       </c>
       <c r="R7" s="34">
         <f t="shared" si="2"/>
-        <v>0.91176470588235292</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -5908,7 +5914,7 @@
       </c>
       <c r="G8" s="36">
         <f t="shared" si="4"/>
-        <v>5.8823529411764705E-2</v>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="H8" s="36">
         <f t="shared" si="4"/>
@@ -5916,7 +5922,7 @@
       </c>
       <c r="I8" s="36">
         <f t="shared" si="4"/>
-        <v>8.8235294117647065E-2</v>
+        <v>0</v>
       </c>
       <c r="J8" s="36">
         <f t="shared" si="4"/>
@@ -5944,11 +5950,11 @@
       </c>
       <c r="P8" s="37">
         <f t="shared" si="0"/>
-        <v>2.5483299380358204E-2</v>
+        <v>1.7079938035820388E-2</v>
       </c>
       <c r="Q8" s="37">
         <f t="shared" si="1"/>
-        <v>8.8235294117647065E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="R8" s="37">
         <f t="shared" si="2"/>
@@ -9316,8 +9322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A71EA1-F646-4F3E-830E-E1FBC54465F3}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15340,8 +15346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EE12D0-9DBC-4060-A74D-7E7E6A600169}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15418,7 +15424,7 @@
         <v>219</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>43</v>
+        <v>531</v>
       </c>
       <c r="H5" s="4" t="str">
         <f>IF(COUNTA(D5:G5)=0,"X","")</f>
@@ -15454,7 +15460,7 @@
         <v>221</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>531</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15472,7 +15478,7 @@
         <v>222</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>531</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15490,7 +15496,7 @@
         <v>223</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>532</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15531,7 +15537,7 @@
         <v>225</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>531</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15567,7 +15573,7 @@
         <v>227</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>531</v>
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15584,9 +15590,12 @@
       <c r="C14" s="9" t="s">
         <v>228</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -15655,7 +15664,7 @@
         <v>232</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>43</v>
+        <v>531</v>
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15709,7 +15718,7 @@
         <v>235</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>43</v>
+        <v>531</v>
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15727,7 +15736,7 @@
         <v>236</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>43</v>
+        <v>531</v>
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15745,7 +15754,7 @@
         <v>237</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>43</v>
+        <v>531</v>
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15763,7 +15772,7 @@
         <v>238</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>43</v>
+        <v>531</v>
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15799,7 +15808,7 @@
         <v>240</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>43</v>
+        <v>531</v>
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15817,7 +15826,7 @@
         <v>241</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>43</v>
+        <v>531</v>
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15835,7 +15844,7 @@
         <v>242</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>43</v>
+        <v>531</v>
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15853,7 +15862,7 @@
         <v>243</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>43</v>
+        <v>531</v>
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15871,7 +15880,7 @@
         <v>244</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>43</v>
+        <v>531</v>
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15910,7 +15919,7 @@
         <v>246</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>43</v>
+        <v>531</v>
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15928,7 +15937,7 @@
         <v>247</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>43</v>
+        <v>531</v>
       </c>
       <c r="H33" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15964,7 +15973,7 @@
         <v>249</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>43</v>
+        <v>531</v>
       </c>
       <c r="H35" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15982,7 +15991,7 @@
         <v>250</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>43</v>
+        <v>531</v>
       </c>
       <c r="H36" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16000,7 +16009,7 @@
         <v>251</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>43</v>
+        <v>531</v>
       </c>
       <c r="H37" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16033,7 +16042,7 @@
       <c r="C39" s="68"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
@@ -16049,7 +16058,7 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF($H$5:$H$38,"X")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -16083,11 +16092,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.94117647058823528</v>
+        <v>0.97058823529411764</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -16096,11 +16105,11 @@
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>5.8823529411764705E-2</v>
+        <v>2.9411764705882353E-2</v>
       </c>
     </row>
   </sheetData>
@@ -17021,8 +17030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26084B0-3C12-462B-B273-6776CCBE4AD2}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17096,6 +17105,9 @@
       <c r="C5" s="9" t="s">
         <v>287</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>43</v>
       </c>
@@ -17186,9 +17198,12 @@
       <c r="C10" s="9" t="s">
         <v>292</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -17399,6 +17414,9 @@
       <c r="C22" s="9" t="s">
         <v>305</v>
       </c>
+      <c r="D22" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F22" s="3" t="s">
         <v>43</v>
       </c>
@@ -17597,9 +17615,12 @@
       <c r="C33" s="9" t="s">
         <v>316</v>
       </c>
+      <c r="D33" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -17684,9 +17705,12 @@
       <c r="C38" s="9" t="s">
         <v>321</v>
       </c>
+      <c r="D38" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -17697,7 +17721,7 @@
       <c r="C39" s="68"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
@@ -17713,7 +17737,7 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF($H$5:$H$38,"X")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -17747,11 +17771,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.91176470588235292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -17760,11 +17784,11 @@
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>8.8235294117647065E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">

--- a/2020/Directivos-colegio/Coordinacion/listados/20200701 Listado de medios de comunicacion con estudiantes.xlsx
+++ b/2020/Directivos-colegio/Coordinacion/listados/20200701 Listado de medios de comunicacion con estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\Directivos-colegio\Coordinacion\listados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555EB9F0-9433-4FC2-83BE-572BCBA22DFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED58BDB-C437-47C5-B732-3442E33C6CCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="710" activeTab="6" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="710" firstSheet="1" activeTab="14" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="15" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="536">
   <si>
     <t>Codigo</t>
   </si>
@@ -1642,6 +1642,15 @@
   </si>
   <si>
     <t>CEL</t>
+  </si>
+  <si>
+    <t>Me escribió pero no ha presentado trabajo</t>
+  </si>
+  <si>
+    <t>Le escribí por WS y no me ha contestado</t>
+  </si>
+  <si>
+    <t>No se conecta a clase, no entrega trabajos. Se conecto para presentar un quiz</t>
   </si>
 </sst>
 </file>
@@ -2284,7 +2293,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2456,6 +2465,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2960,16 +2978,16 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>34</c:v>
@@ -2993,7 +3011,7 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3152,16 +3170,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3185,7 +3203,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3627,16 +3645,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97222222222222221</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97058823529411764</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -3660,7 +3678,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.96969696969696972</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3816,16 +3834,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7777777777777776E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8823529411764705E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9411764705882353E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3849,7 +3867,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.0303030303030304E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5683,7 +5701,7 @@
       </c>
       <c r="D5" s="10">
         <f>'08-2'!D46</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="10">
         <f>'08-3'!D44</f>
@@ -5691,11 +5709,11 @@
       </c>
       <c r="F5" s="10">
         <f>'08-4'!D44</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" s="10">
         <f>'09-1'!D44</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="10">
         <f>'09-2'!D44</f>
@@ -5727,11 +5745,11 @@
       </c>
       <c r="O5" s="10">
         <f>'11-3'!D43</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P5" s="33">
         <f t="shared" ref="P5:P8" si="0">AVERAGE(B5:O5)</f>
-        <v>33.5</v>
+        <v>33.857142857142854</v>
       </c>
       <c r="Q5" s="33">
         <f t="shared" ref="Q5:Q8" si="1">MAX(B5:O5)</f>
@@ -5756,7 +5774,7 @@
       </c>
       <c r="D6" s="10">
         <f>'08-2'!D47</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="10">
         <f>'08-3'!D45</f>
@@ -5764,11 +5782,11 @@
       </c>
       <c r="F6" s="10">
         <f>'08-4'!D45</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="10">
         <f>'09-1'!D45</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="10">
         <f>'09-2'!D45</f>
@@ -5800,11 +5818,11 @@
       </c>
       <c r="O6" s="10">
         <f>'11-3'!D44</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="33">
         <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="Q6" s="33">
         <f t="shared" si="1"/>
@@ -5829,7 +5847,7 @@
       </c>
       <c r="D7" s="32">
         <f t="shared" si="3"/>
-        <v>0.97222222222222221</v>
+        <v>1</v>
       </c>
       <c r="E7" s="32">
         <f t="shared" si="3"/>
@@ -5837,11 +5855,11 @@
       </c>
       <c r="F7" s="32">
         <f t="shared" si="3"/>
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
       <c r="G7" s="32">
         <f t="shared" si="3"/>
-        <v>0.97058823529411764</v>
+        <v>1</v>
       </c>
       <c r="H7" s="32">
         <f t="shared" si="3"/>
@@ -5873,11 +5891,11 @@
       </c>
       <c r="O7" s="32">
         <f t="shared" si="3"/>
-        <v>0.96969696969696972</v>
+        <v>1</v>
       </c>
       <c r="P7" s="34">
         <f t="shared" si="0"/>
-        <v>0.98292006196417958</v>
+        <v>0.99337121212121204</v>
       </c>
       <c r="Q7" s="34">
         <f t="shared" si="1"/>
@@ -5902,7 +5920,7 @@
       </c>
       <c r="D8" s="36">
         <f t="shared" si="4"/>
-        <v>2.7777777777777776E-2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="36">
         <f t="shared" si="4"/>
@@ -5910,11 +5928,11 @@
       </c>
       <c r="F8" s="36">
         <f t="shared" si="4"/>
-        <v>5.8823529411764705E-2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="36">
         <f t="shared" si="4"/>
-        <v>2.9411764705882353E-2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="36">
         <f t="shared" si="4"/>
@@ -5946,11 +5964,11 @@
       </c>
       <c r="O8" s="36">
         <f t="shared" si="4"/>
-        <v>3.0303030303030304E-2</v>
+        <v>0</v>
       </c>
       <c r="P8" s="37">
         <f t="shared" si="0"/>
-        <v>1.7079938035820388E-2</v>
+        <v>6.628787878787879E-3</v>
       </c>
       <c r="Q8" s="37">
         <f t="shared" si="1"/>
@@ -6307,8 +6325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE5E425-7606-4CA0-91F7-19ECFA2BFA71}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6325,26 +6343,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -6508,6 +6526,9 @@
       <c r="C12" s="9" t="s">
         <v>329</v>
       </c>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F12" s="3" t="s">
         <v>43</v>
       </c>
@@ -6964,14 +6985,14 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="71"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E38" s="22">
         <f t="shared" ref="E38:G38" si="1">COUNTA(E5:E37)</f>
@@ -7060,7 +7081,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
@@ -7080,26 +7101,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -7704,11 +7725,11 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="B37" s="67"/>
-      <c r="C37" s="68"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="71"/>
       <c r="D37" s="22">
         <f>COUNTA(D5:D36)</f>
         <v>30</v>
@@ -7797,7 +7818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E6AB2A-DF13-43E5-8B37-FC6F541704E3}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -7815,26 +7836,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -8454,11 +8475,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="71"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
         <v>29</v>
@@ -8567,26 +8588,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -9227,11 +9248,11 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="67"/>
-      <c r="C39" s="68"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="71"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
         <v>34</v>
@@ -9322,8 +9343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A71EA1-F646-4F3E-830E-E1FBC54465F3}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9339,26 +9360,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
@@ -9403,6 +9424,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="4" t="s">
         <v>43</v>
       </c>
@@ -9424,6 +9446,7 @@
       <c r="D6" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E6" s="3"/>
       <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9440,6 +9463,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="4" t="s">
         <v>43</v>
       </c>
@@ -9461,6 +9485,7 @@
       <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E8" s="3"/>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9479,6 +9504,7 @@
       <c r="D9" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E9" s="3"/>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9497,6 +9523,7 @@
       <c r="D10" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E10" s="3"/>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9515,6 +9542,7 @@
       <c r="D11" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E11" s="3"/>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9533,6 +9561,7 @@
       <c r="D12" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E12" s="3"/>
       <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9551,6 +9580,7 @@
       <c r="D13" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E13" s="3"/>
       <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9569,6 +9599,7 @@
       <c r="D14" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E14" s="3"/>
       <c r="H14" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9587,6 +9618,7 @@
       <c r="D15" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E15" s="3"/>
       <c r="H15" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9605,6 +9637,7 @@
       <c r="D16" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E16" s="3"/>
       <c r="H16" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9623,6 +9656,7 @@
       <c r="D17" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E17" s="3"/>
       <c r="H17" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9641,6 +9675,7 @@
       <c r="D18" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E18" s="3"/>
       <c r="H18" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9659,6 +9694,7 @@
       <c r="D19" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E19" s="3"/>
       <c r="H19" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9677,6 +9713,7 @@
       <c r="D20" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E20" s="3"/>
       <c r="H20" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9695,6 +9732,7 @@
       <c r="D21" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E21" s="3"/>
       <c r="H21" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9713,6 +9751,7 @@
       <c r="D22" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E22" s="3"/>
       <c r="H22" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9731,6 +9770,7 @@
       <c r="D23" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E23" s="3"/>
       <c r="H23" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9746,7 +9786,10 @@
       <c r="C24" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
         <v>43</v>
       </c>
@@ -9768,6 +9811,7 @@
       <c r="D25" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E25" s="3"/>
       <c r="H25" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9786,6 +9830,7 @@
       <c r="D26" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E26" s="3"/>
       <c r="H26" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9804,6 +9849,7 @@
       <c r="D27" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E27" s="3"/>
       <c r="H27" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9822,6 +9868,7 @@
       <c r="D28" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E28" s="3"/>
       <c r="H28" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9840,6 +9887,7 @@
       <c r="D29" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E29" s="3"/>
       <c r="H29" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9861,6 +9909,7 @@
       <c r="D30" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E30" s="3"/>
       <c r="H30" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9879,6 +9928,7 @@
       <c r="D31" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E31" s="3"/>
       <c r="H31" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9897,6 +9947,7 @@
       <c r="D32" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E32" s="3"/>
       <c r="H32" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9915,6 +9966,7 @@
       <c r="D33" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E33" s="3"/>
       <c r="H33" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9931,6 +9983,7 @@
         <v>77</v>
       </c>
       <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="4" t="s">
         <v>43</v>
       </c>
@@ -9952,6 +10005,7 @@
       <c r="D35" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E35" s="3"/>
       <c r="H35" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9970,6 +10024,7 @@
       <c r="D36" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E36" s="3"/>
       <c r="H36" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9988,20 +10043,21 @@
       <c r="D37" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E37" s="3"/>
       <c r="H37" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="71"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E38" s="22">
         <f t="shared" ref="E38:G38" si="1">COUNTA(E5:E37)</f>
@@ -10087,10 +10143,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D56A688-FE73-4566-841A-31D529165F68}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10107,26 +10163,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -10658,7 +10714,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>3383</v>
       </c>
@@ -10676,7 +10732,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
         <v>832</v>
       </c>
@@ -10694,7 +10750,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>796</v>
       </c>
@@ -10712,7 +10768,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
         <v>3608</v>
       </c>
@@ -10722,12 +10778,18 @@
       <c r="C36" s="9" t="s">
         <v>485</v>
       </c>
+      <c r="G36" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
         <v>1450</v>
       </c>
@@ -10745,12 +10807,12 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="67" t="s">
+    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="71"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
         <v>32</v>
@@ -10765,15 +10827,15 @@
       </c>
       <c r="G38" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="23">
         <f>COUNTIF(H5:H37,"X")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C41" s="24" t="s">
         <v>492</v>
       </c>
@@ -10784,7 +10846,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C42" s="19" t="s">
         <v>490</v>
       </c>
@@ -10796,25 +10858,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C43" s="19" t="s">
         <v>488</v>
       </c>
       <c r="D43" s="10">
         <f>D42-D44</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E43" s="12">
         <v>0.8529411764705882</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C44" s="19" t="s">
         <v>489</v>
       </c>
       <c r="D44" s="10">
         <f>H38</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="12">
         <v>0.14705882352941177</v>
@@ -10843,8 +10905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10860,26 +10922,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -11851,11 +11913,11 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="67" t="s">
+      <c r="A45" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="B45" s="67"/>
-      <c r="C45" s="68"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="71"/>
       <c r="D45" s="22">
         <f>COUNTA(D5:D44)</f>
         <v>38</v>
@@ -11956,7 +12018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8FFEA4-FAE9-4E98-A7DA-1A249C6193F4}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -11974,26 +12036,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -12634,11 +12696,11 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="67"/>
-      <c r="C39" s="68"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="71"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
         <v>34</v>
@@ -12730,8 +12792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50465DDD-5234-470A-A297-95DF11514D18}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12743,33 +12805,34 @@
     <col min="5" max="5" width="15.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11" style="3" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" style="3" customWidth="1"/>
-    <col min="8" max="9" width="15.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="5" customWidth="1"/>
     <col min="10" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="41"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="41"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
@@ -12799,7 +12862,7 @@
       <c r="H4" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="67" t="s">
         <v>519</v>
       </c>
       <c r="J4" s="39">
@@ -12826,7 +12889,7 @@
         <f>IF(COUNTA(D5:G5)=0,"X","")</f>
         <v/>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -12845,7 +12908,7 @@
         <f t="shared" ref="H6:H40" si="0">IF(COUNTA(D6:G6)=0,"X","")</f>
         <v/>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="3" t="s">
         <v>43</v>
       </c>
@@ -12867,7 +12930,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="3" t="s">
         <v>43</v>
       </c>
@@ -12892,7 +12955,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -12911,7 +12974,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="48"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -12930,7 +12993,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -12949,7 +13012,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="48"/>
       <c r="J11" s="3" t="s">
         <v>43</v>
       </c>
@@ -12971,7 +13034,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="48"/>
       <c r="J12" s="3" t="s">
         <v>43</v>
       </c>
@@ -12993,7 +13056,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I13" s="4"/>
+      <c r="I13" s="48"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -13012,7 +13075,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -13031,7 +13094,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="3" t="s">
         <v>43</v>
       </c>
@@ -13053,7 +13116,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="48" t="s">
         <v>521</v>
       </c>
     </row>
@@ -13074,7 +13137,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="48"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -13093,7 +13156,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="48"/>
       <c r="J18" s="3" t="s">
         <v>43</v>
       </c>
@@ -13115,7 +13178,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I19" s="4"/>
+      <c r="I19" s="48"/>
       <c r="J19" s="3" t="s">
         <v>43</v>
       </c>
@@ -13137,7 +13200,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="48"/>
       <c r="J20" s="3" t="s">
         <v>43</v>
       </c>
@@ -13159,7 +13222,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I21" s="4"/>
+      <c r="I21" s="48"/>
       <c r="J21" s="3" t="s">
         <v>43</v>
       </c>
@@ -13181,7 +13244,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I22" s="4"/>
+      <c r="I22" s="48"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -13200,7 +13263,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I23" s="4"/>
+      <c r="I23" s="48"/>
       <c r="J23" s="3" t="s">
         <v>43</v>
       </c>
@@ -13222,7 +13285,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I24" s="4"/>
+      <c r="I24" s="48"/>
       <c r="J24" s="3" t="s">
         <v>43</v>
       </c>
@@ -13244,7 +13307,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I25" s="4"/>
+      <c r="I25" s="48"/>
       <c r="J25" s="3" t="s">
         <v>43</v>
       </c>
@@ -13266,7 +13329,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I26" s="4"/>
+      <c r="I26" s="48"/>
       <c r="J26" s="3" t="s">
         <v>43</v>
       </c>
@@ -13288,7 +13351,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I27" s="4"/>
+      <c r="I27" s="48"/>
       <c r="J27" s="3" t="s">
         <v>43</v>
       </c>
@@ -13310,7 +13373,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I28" s="4"/>
+      <c r="I28" s="48"/>
       <c r="J28" s="3" t="s">
         <v>43</v>
       </c>
@@ -13335,7 +13398,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="48" t="s">
         <v>520</v>
       </c>
     </row>
@@ -13356,7 +13419,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I30" s="4"/>
+      <c r="I30" s="48"/>
       <c r="J30" s="3" t="s">
         <v>43</v>
       </c>
@@ -13378,7 +13441,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I31" s="4"/>
+      <c r="I31" s="48"/>
       <c r="J31" s="3" t="s">
         <v>43</v>
       </c>
@@ -13400,7 +13463,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I32" s="4"/>
+      <c r="I32" s="48"/>
       <c r="J32" s="3" t="s">
         <v>43</v>
       </c>
@@ -13422,7 +13485,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I33" s="4"/>
+      <c r="I33" s="48"/>
       <c r="J33" s="3" t="s">
         <v>43</v>
       </c>
@@ -13444,7 +13507,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I34" s="4"/>
+      <c r="I34" s="48"/>
       <c r="J34" s="3" t="s">
         <v>43</v>
       </c>
@@ -13466,7 +13529,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I35" s="4"/>
+      <c r="I35" s="48"/>
       <c r="J35" s="3" t="s">
         <v>43</v>
       </c>
@@ -13488,7 +13551,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I36" s="4"/>
+      <c r="I36" s="48"/>
       <c r="J36" s="3" t="s">
         <v>518</v>
       </c>
@@ -13503,11 +13566,16 @@
       <c r="C37" s="9" t="s">
         <v>147</v>
       </c>
+      <c r="F37" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="I37" s="4"/>
+        <v/>
+      </c>
+      <c r="I37" s="48" t="s">
+        <v>534</v>
+      </c>
       <c r="J37" s="3" t="s">
         <v>43</v>
       </c>
@@ -13529,7 +13597,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I38" s="4"/>
+      <c r="I38" s="48"/>
       <c r="J38" s="3" t="s">
         <v>43</v>
       </c>
@@ -13551,7 +13619,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I39" s="4"/>
+      <c r="I39" s="48"/>
       <c r="J39" s="3" t="s">
         <v>43</v>
       </c>
@@ -13573,17 +13641,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I40" s="4"/>
+      <c r="I40" s="48"/>
       <c r="J40" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="B41" s="67"/>
-      <c r="C41" s="68"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="71"/>
       <c r="D41" s="22">
         <f>COUNTA(D5:D40)</f>
         <v>33</v>
@@ -13594,7 +13662,7 @@
       </c>
       <c r="F41" s="22">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G41" s="22">
         <f t="shared" si="1"/>
@@ -13602,9 +13670,9 @@
       </c>
       <c r="H41" s="23">
         <f>COUNTIF(H5:H40,"X")</f>
-        <v>1</v>
-      </c>
-      <c r="I41" s="42"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="68"/>
       <c r="J41" s="3">
         <f>COUNTA(J5:J40)</f>
         <v>26</v>
@@ -13641,11 +13709,11 @@
       </c>
       <c r="D46" s="10">
         <f>D45-D47</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E46" s="12">
         <f>D46/D45</f>
-        <v>0.97222222222222221</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -13654,11 +13722,11 @@
       </c>
       <c r="D47" s="10">
         <f>H41</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="12">
         <f>D47/D45</f>
-        <v>2.7777777777777776E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13680,7 +13748,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="E5" sqref="E5:E37"/>
     </sheetView>
@@ -13699,26 +13767,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -14351,11 +14419,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="71"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
         <v>33</v>
@@ -14457,10 +14525,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581CE2C6-5A3B-4910-989B-A6ED716B8D89}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B5" sqref="B5"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5:E38"/>
+      <selection pane="topRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14477,27 +14545,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="41"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -14815,11 +14883,17 @@
       <c r="C18" s="9" t="s">
         <v>198</v>
       </c>
+      <c r="E18" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I18" s="4"/>
+      <c r="J18" s="2" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
@@ -15135,9 +15209,12 @@
       <c r="C33" s="9" t="s">
         <v>213</v>
       </c>
+      <c r="D33" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I33" s="4"/>
     </row>
@@ -15246,18 +15323,18 @@
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="67"/>
-      <c r="C39" s="68"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="71"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="22">
         <f t="shared" si="1"/>
@@ -15269,12 +15346,12 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF($H$5:$H$38,"X")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" s="42"/>
       <c r="J39" s="2">
         <f>COUNTA(J5:J38)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -15308,11 +15385,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -15321,11 +15398,11 @@
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>5.8823529411764705E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -15346,8 +15423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EE12D0-9DBC-4060-A74D-7E7E6A600169}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15363,26 +15440,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -15426,6 +15503,9 @@
       <c r="D5" s="3" t="s">
         <v>531</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H5" s="4" t="str">
         <f>IF(COUNTA(D5:G5)=0,"X","")</f>
         <v/>
@@ -15462,6 +15542,9 @@
       <c r="D7" s="3" t="s">
         <v>531</v>
       </c>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15480,6 +15563,9 @@
       <c r="D8" s="3" t="s">
         <v>531</v>
       </c>
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15498,6 +15584,9 @@
       <c r="D9" s="3" t="s">
         <v>532</v>
       </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15519,7 +15608,9 @@
       <c r="D10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="53"/>
+      <c r="E10" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="G10" s="53"/>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15539,6 +15630,9 @@
       <c r="D11" s="3" t="s">
         <v>531</v>
       </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15557,6 +15651,9 @@
       <c r="D12" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E12" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15593,6 +15690,9 @@
       <c r="D14" s="3" t="s">
         <v>531</v>
       </c>
+      <c r="E14" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15611,6 +15711,9 @@
       <c r="D15" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15626,10 +15729,12 @@
       <c r="C16" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H16" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I16" s="64" t="s">
         <v>517</v>
@@ -15648,6 +15753,9 @@
       <c r="D17" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E17" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15666,6 +15774,9 @@
       <c r="D18" s="3" t="s">
         <v>531</v>
       </c>
+      <c r="E18" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15684,6 +15795,9 @@
       <c r="D19" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E19" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15720,6 +15834,9 @@
       <c r="D21" s="3" t="s">
         <v>531</v>
       </c>
+      <c r="E21" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15738,6 +15855,9 @@
       <c r="D22" s="3" t="s">
         <v>531</v>
       </c>
+      <c r="E22" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15774,6 +15894,9 @@
       <c r="D24" s="3" t="s">
         <v>531</v>
       </c>
+      <c r="E24" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15792,6 +15915,9 @@
       <c r="D25" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E25" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15810,6 +15936,9 @@
       <c r="D26" s="3" t="s">
         <v>531</v>
       </c>
+      <c r="E26" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15828,6 +15957,9 @@
       <c r="D27" s="3" t="s">
         <v>531</v>
       </c>
+      <c r="E27" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15846,6 +15978,9 @@
       <c r="D28" s="3" t="s">
         <v>531</v>
       </c>
+      <c r="E28" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15864,6 +15999,9 @@
       <c r="D29" s="3" t="s">
         <v>531</v>
       </c>
+      <c r="E29" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15882,6 +16020,9 @@
       <c r="D30" s="3" t="s">
         <v>531</v>
       </c>
+      <c r="E30" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15897,6 +16038,9 @@
       <c r="C31" s="9" t="s">
         <v>245</v>
       </c>
+      <c r="E31" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F31" s="3" t="s">
         <v>43</v>
       </c>
@@ -15939,6 +16083,9 @@
       <c r="D33" s="3" t="s">
         <v>531</v>
       </c>
+      <c r="E33" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H33" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15975,6 +16122,9 @@
       <c r="D35" s="3" t="s">
         <v>531</v>
       </c>
+      <c r="E35" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H35" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -16011,6 +16161,9 @@
       <c r="D37" s="3" t="s">
         <v>531</v>
       </c>
+      <c r="E37" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H37" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -16035,18 +16188,18 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="67"/>
-      <c r="C39" s="68"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="71"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
         <v>32</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F39" s="22">
         <f t="shared" si="1"/>
@@ -16058,7 +16211,7 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF($H$5:$H$38,"X")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -16092,11 +16245,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.97058823529411764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -16105,11 +16258,11 @@
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>2.9411764705882353E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16130,8 +16283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E1DDBF-2BA4-4D02-93FC-EAD0C83F48A7}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16147,27 +16300,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="41"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -16822,7 +16975,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="48" t="s">
         <v>530</v>
       </c>
     </row>
@@ -16934,11 +17087,11 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="67"/>
-      <c r="C39" s="68"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="71"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
         <v>33</v>
@@ -17048,26 +17201,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -17714,11 +17867,11 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="67"/>
-      <c r="C39" s="68"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="71"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
         <v>34</v>
